--- a/trade_table.xlsx
+++ b/trade_table.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="s1" sheetId="1" r:id="rId1"/>
-    <sheet name="s2" sheetId="2" r:id="rId2"/>
+    <sheet name="s3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="s1" sheetId="1" r:id="rId3"/>
+    <sheet name="s2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'s1'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'s2'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'s1'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'s2'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'s3'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="104">
   <si>
     <t>종목코드</t>
   </si>
@@ -278,13 +281,100 @@
   </si>
   <si>
     <t>455850</t>
+  </si>
+  <si>
+    <t>KR6068922B46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR6068922B46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화239-2(녹)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내채권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도주식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER 인도니프티50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외주식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목명</t>
+  </si>
+  <si>
+    <t>평가금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부자산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부자산군2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초평가손익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,16 +390,45 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -317,21 +436,176 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -644,16 +918,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -692,6 +966,663 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
+        <v>45350</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>8700030</v>
+      </c>
+      <c r="E2">
+        <v>8700030</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="32">
+        <v>0</v>
+      </c>
+      <c r="J2" s="32">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>45355</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32">
+        <v>3926</v>
+      </c>
+      <c r="J3" s="32">
+        <v>3336</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>45355</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
+        <v>29</v>
+      </c>
+      <c r="J4" s="32">
+        <v>29</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>45356</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32">
+        <v>15756</v>
+      </c>
+      <c r="J5" s="32">
+        <v>13336</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
+        <v>45356</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
+        <v>5856</v>
+      </c>
+      <c r="J6" s="32">
+        <v>5856</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>45357</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K8" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>45358</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>8700030</v>
+      </c>
+      <c r="H9" s="30">
+        <v>8706513</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21">
+        <v>8705523</v>
+      </c>
+      <c r="K9" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>45358</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4253700</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4253700</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>45358</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>45361</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="17">
+        <v>140</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1492400</v>
+      </c>
+      <c r="E13" s="9">
+        <f>1492400+210</f>
+        <v>1492610</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>45361</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="16">
+        <v>90</v>
+      </c>
+      <c r="D14" s="7">
+        <v>999450</v>
+      </c>
+      <c r="E14" s="7">
+        <f>999450+140</f>
+        <v>999590</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>45361</v>
+      </c>
+      <c r="B15" s="15">
+        <v>453870</v>
+      </c>
+      <c r="C15" s="17">
+        <v>243</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2990815</v>
+      </c>
+      <c r="E15" s="9">
+        <f>2990815+430</f>
+        <v>2991245</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1">
+    <sortState ref="A2:K105">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="35">
+        <v>453870</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45292</v>
       </c>
@@ -3913,10 +4844,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>45356</v>
+        <v>45355</v>
       </c>
       <c r="B94" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3937,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>15756</v>
+        <v>29</v>
       </c>
       <c r="J94">
-        <v>13336</v>
+        <v>29</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -3951,7 +4882,7 @@
         <v>45356</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3972,10 +4903,10 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>5856</v>
+        <v>15756</v>
       </c>
       <c r="J95">
-        <v>5856</v>
+        <v>13336</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -3983,10 +4914,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4007,12 +4938,330 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>29</v>
+        <v>5856</v>
       </c>
       <c r="J96">
-        <v>29</v>
+        <v>5856</v>
       </c>
       <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="J97" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>45358</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="J98" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J99" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="10">
+        <v>44991</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="16">
+        <v>0</v>
+      </c>
+      <c r="D100" s="7">
+        <v>0</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0</v>
+      </c>
+      <c r="F100" s="18">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0</v>
+      </c>
+      <c r="H100" s="19">
+        <v>0</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+      <c r="J100" s="19">
+        <v>0</v>
+      </c>
+      <c r="K100" s="19">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="12">
+        <v>44992</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="17">
+        <v>0</v>
+      </c>
+      <c r="D101" s="9">
+        <v>0</v>
+      </c>
+      <c r="E101" s="9">
+        <v>0</v>
+      </c>
+      <c r="F101" s="20">
+        <v>0</v>
+      </c>
+      <c r="G101" s="9">
+        <v>8700030</v>
+      </c>
+      <c r="H101" s="21">
+        <v>8706513</v>
+      </c>
+      <c r="I101" s="9">
+        <v>0</v>
+      </c>
+      <c r="J101" s="21">
+        <v>8705523</v>
+      </c>
+      <c r="K101" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="10">
+        <v>44992</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="16">
+        <v>1</v>
+      </c>
+      <c r="D102" s="7">
+        <v>4253700</v>
+      </c>
+      <c r="E102" s="7">
+        <v>4253700</v>
+      </c>
+      <c r="F102" s="18">
+        <v>0</v>
+      </c>
+      <c r="G102" s="7">
+        <v>0</v>
+      </c>
+      <c r="H102" s="19">
+        <v>0</v>
+      </c>
+      <c r="I102" s="7">
+        <v>0</v>
+      </c>
+      <c r="J102" s="19">
+        <v>0</v>
+      </c>
+      <c r="K102" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="12">
+        <v>44995</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C103" s="17">
+        <v>140</v>
+      </c>
+      <c r="D103" s="9">
+        <v>1492400</v>
+      </c>
+      <c r="E103" s="9">
+        <f>1492400+210</f>
+        <v>1492610</v>
+      </c>
+      <c r="F103" s="20">
+        <v>0</v>
+      </c>
+      <c r="G103" s="9">
+        <v>0</v>
+      </c>
+      <c r="H103" s="21">
+        <v>0</v>
+      </c>
+      <c r="I103" s="9">
+        <v>0</v>
+      </c>
+      <c r="J103" s="21">
+        <v>0</v>
+      </c>
+      <c r="K103" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="10">
+        <v>44995</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="16">
+        <v>90</v>
+      </c>
+      <c r="D104" s="7">
+        <v>999450</v>
+      </c>
+      <c r="E104" s="7">
+        <f>999450+140</f>
+        <v>999590</v>
+      </c>
+      <c r="F104" s="18">
+        <v>0</v>
+      </c>
+      <c r="G104" s="7">
+        <v>0</v>
+      </c>
+      <c r="H104" s="19">
+        <v>0</v>
+      </c>
+      <c r="I104" s="7">
+        <v>0</v>
+      </c>
+      <c r="J104" s="19">
+        <v>0</v>
+      </c>
+      <c r="K104" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="12">
+        <v>44995</v>
+      </c>
+      <c r="B105" s="15">
+        <v>453870</v>
+      </c>
+      <c r="C105" s="17">
+        <v>243</v>
+      </c>
+      <c r="D105" s="9">
+        <v>2990815</v>
+      </c>
+      <c r="E105" s="9">
+        <f>2990815+430</f>
+        <v>2991245</v>
+      </c>
+      <c r="F105" s="20">
+        <v>0</v>
+      </c>
+      <c r="G105" s="9">
+        <v>0</v>
+      </c>
+      <c r="H105" s="21">
+        <v>0</v>
+      </c>
+      <c r="I105" s="9">
+        <v>0</v>
+      </c>
+      <c r="J105" s="21">
+        <v>0</v>
+      </c>
+      <c r="K105" s="21">
         <v>0</v>
       </c>
     </row>
@@ -4027,7 +5276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
